--- a/pgbench/pgbench調査.xlsx
+++ b/pgbench/pgbench調査.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9AFDA8-0544-47BE-8909-5E965982A4A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63765C2D-6272-4D02-ABF7-4EB4456BFBA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,9 +147,6 @@
     <t>dropping old tables...</t>
   </si>
   <si>
-    <t>pgbench -i -U postgres -s 50 --partitions=2 -d sample</t>
-  </si>
-  <si>
     <t>creating 2 partitions...</t>
   </si>
   <si>
@@ -263,9 +260,6 @@
     <t>number of transactions actually processed: 50/50</t>
   </si>
   <si>
-    <t>pgbench -U postgres -C -j 5 -c 5 sample</t>
-  </si>
-  <si>
     <t>number of threads: 5</t>
   </si>
   <si>
@@ -545,6 +539,14 @@
   </si>
   <si>
     <t xml:space="preserve">         0.000  table t1;</t>
+  </si>
+  <si>
+    <t>pgbench -i -U postgres -s 50 --partitions=2 -d sample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pgbench -U postgres -C -j 5 -c 5 sample</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -916,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:B135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A135" sqref="A122:XFD135"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -987,44 +989,44 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="2:2" s="2" customFormat="1">
+      <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="2:2" s="2" customFormat="1">
+      <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="2:2" s="2" customFormat="1">
+      <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="4" t="s">
+    <row r="16" spans="2:2" s="2" customFormat="1">
+      <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="2:2" s="2" customFormat="1">
+      <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="2:2" s="2" customFormat="1">
       <c r="B21" s="2" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="2:2" s="2" customFormat="1">
@@ -1039,7 +1041,7 @@
     </row>
     <row r="24" spans="2:2" s="2" customFormat="1">
       <c r="B24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:2" s="2" customFormat="1">
@@ -1049,7 +1051,7 @@
     </row>
     <row r="26" spans="2:2" s="2" customFormat="1">
       <c r="B26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="2:2" s="2" customFormat="1">
@@ -1064,482 +1066,482 @@
     </row>
     <row r="29" spans="2:2" s="2" customFormat="1">
       <c r="B29" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="2:2" s="2" customFormat="1">
       <c r="B32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="2:2" s="2" customFormat="1">
       <c r="B33" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="2:2" s="2" customFormat="1">
       <c r="B34" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="2:2" s="2" customFormat="1">
       <c r="B35" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="2:2" s="2" customFormat="1">
       <c r="B36" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="2:2" s="2" customFormat="1">
       <c r="B37" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="2:2" s="2" customFormat="1">
       <c r="B38" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="2:2" s="2" customFormat="1">
       <c r="B39" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="2:2" s="2" customFormat="1">
       <c r="B40" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="2:2" s="2" customFormat="1">
       <c r="B41" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="2:2" s="2" customFormat="1">
       <c r="B42" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="2:2" s="2" customFormat="1">
       <c r="B43" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="2:2" s="2" customFormat="1">
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="2:2" s="2" customFormat="1">
       <c r="B47" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="2:2" s="2" customFormat="1">
       <c r="B48" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="2:2" s="2" customFormat="1">
       <c r="B49" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="2:2" s="2" customFormat="1">
       <c r="B50" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="2:2" s="2" customFormat="1">
       <c r="B51" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="2:2" s="2" customFormat="1">
       <c r="B52" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="2:2" s="2" customFormat="1">
       <c r="B53" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="2:2" s="2" customFormat="1">
       <c r="B54" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="2:2" s="2" customFormat="1">
       <c r="B55" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="2:2" s="2" customFormat="1">
       <c r="B56" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="2:2" s="2" customFormat="1">
       <c r="B57" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="2:2" s="2" customFormat="1">
       <c r="B58" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="2:2" s="2" customFormat="1">
       <c r="B59" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="2:2" s="2" customFormat="1">
       <c r="B60" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="2:2" s="2" customFormat="1">
       <c r="B65" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="2:2" s="2" customFormat="1">
       <c r="B66" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="2:2" s="2" customFormat="1">
       <c r="B67" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="2:2" s="2" customFormat="1">
       <c r="B68" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="2:2" s="2" customFormat="1">
       <c r="B69" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="2:2" s="2" customFormat="1">
       <c r="B70" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="2:2" s="2" customFormat="1">
       <c r="B71" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="2:2" s="2" customFormat="1">
       <c r="B72" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="2:2" s="2" customFormat="1">
       <c r="B73" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="2:2" s="2" customFormat="1">
       <c r="B74" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="2:2" s="2" customFormat="1">
       <c r="B75" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="2:2" s="2" customFormat="1">
       <c r="B76" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="2:2" s="2" customFormat="1">
       <c r="B79" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="2:2" s="2" customFormat="1">
       <c r="B80" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81" spans="2:2" s="2" customFormat="1">
       <c r="B81" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" spans="2:2" s="2" customFormat="1">
       <c r="B82" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="2:2" s="2" customFormat="1">
       <c r="B83" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="84" spans="2:2" s="2" customFormat="1">
       <c r="B84" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="2:2" s="2" customFormat="1">
       <c r="B85" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="2:2" s="2" customFormat="1">
       <c r="B86" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87" spans="2:2" s="2" customFormat="1">
       <c r="B87" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="2:2" s="2" customFormat="1">
       <c r="B88" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91" spans="2:2" s="2" customFormat="1">
       <c r="B91" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="2:2" s="2" customFormat="1">
       <c r="B92" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="2:2" s="2" customFormat="1">
       <c r="B93" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="2:2" s="2" customFormat="1">
       <c r="B98" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99" spans="2:2" s="2" customFormat="1">
       <c r="B99" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100" spans="2:2" s="2" customFormat="1">
       <c r="B100" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101" spans="2:2" s="2" customFormat="1">
       <c r="B101" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102" spans="2:2" s="2" customFormat="1">
       <c r="B102" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103" spans="2:2" s="2" customFormat="1">
       <c r="B103" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="104" spans="2:2" s="2" customFormat="1">
       <c r="B104" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105" spans="2:2" s="2" customFormat="1">
       <c r="B105" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="106" spans="2:2" s="2" customFormat="1">
       <c r="B106" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="107" spans="2:2" s="2" customFormat="1">
       <c r="B107" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="108" spans="2:2" s="2" customFormat="1">
       <c r="B108" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="109" spans="2:2" s="2" customFormat="1">
       <c r="B109" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="114" spans="2:2" s="2" customFormat="1">
       <c r="B114" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="117" spans="2:2" s="2" customFormat="1">
       <c r="B117" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="118" spans="2:2" s="2" customFormat="1">
       <c r="B118" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="119" spans="2:2" s="2" customFormat="1">
       <c r="B119" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="122" spans="2:2" s="2" customFormat="1">
       <c r="B122" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="123" spans="2:2" s="2" customFormat="1">
       <c r="B123" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124" spans="2:2" s="2" customFormat="1">
       <c r="B124" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" spans="2:2" s="2" customFormat="1">
       <c r="B125" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="126" spans="2:2" s="2" customFormat="1">
       <c r="B126" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="2:2" s="2" customFormat="1">
       <c r="B127" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="128" spans="2:2" s="2" customFormat="1">
       <c r="B128" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="129" spans="2:2" s="2" customFormat="1">
       <c r="B129" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="130" spans="2:2" s="2" customFormat="1">
       <c r="B130" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="131" spans="2:2" s="2" customFormat="1">
       <c r="B131" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="132" spans="2:2" s="2" customFormat="1">
       <c r="B132" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="133" spans="2:2" s="2" customFormat="1">
       <c r="B133" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="134" spans="2:2" s="2" customFormat="1">
       <c r="B134" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="135" spans="2:2" s="2" customFormat="1">
       <c r="B135" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/pgbench/pgbench調査.xlsx
+++ b/pgbench/pgbench調査.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63765C2D-6272-4D02-ABF7-4EB4456BFBA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F731766B-B528-41D6-ACAD-08871242594A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -918,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:B135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
